--- a/mobi_client/mobi_client/mobi_config/excel/100_异质物研究地图配置.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/100_异质物研究地图配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160FDAA6-C213-4143-B09B-91D5257F7E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC37F3-BB34-44BD-BD46-7447B47D3299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26460" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HexMap" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/100_异质物研究地图配置.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/100_异质物研究地图配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC37F3-BB34-44BD-BD46-7447B47D3299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64C286D-282B-46F0-964C-2A295CFB897D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26460" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HexMap" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,19 @@
     <t>id</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>邻居节点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>neighboursId</t>
-  </si>
-  <si>
-    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>aint</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3|6|2|5|7|4|</t>
@@ -183,29 +186,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -225,6 +206,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -233,11 +221,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -261,7 +264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39945677053132728"/>
+        <fgColor theme="3" tint="0.39948728904080327"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -311,26 +314,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -641,7 +644,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,23 +656,23 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -677,7 +680,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -733,7 +736,7 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -765,7 +768,7 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1002,8 +1005,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/100_异质物研究地图配置.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/100_异质物研究地图配置.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel_has_limit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64C286D-282B-46F0-964C-2A295CFB897D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EB41B9-DB86-44FE-BB59-B1715A81E7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="14835" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HexMap" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>40|30|</t>
+  </si>
+  <si>
+    <t>LimitState</t>
+  </si>
+  <si>
+    <t>ID:HexMap</t>
   </si>
 </sst>
 </file>
@@ -180,7 +186,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -188,20 +193,17 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -243,7 +245,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +273,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +342,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -640,8 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -677,330 +687,338 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
+      <c r="A4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
         <v>41</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>45</v>
       </c>
     </row>
